--- a/server/giangViens.xlsx
+++ b/server/giangViens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\QuanLyKhoaLuan\quan-ly-khoa-luan\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A71403-F1F0-47C7-9577-8201B8DDAE09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA5FF33-6C29-4A50-A8FE-7A4BEB222517}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>Trần Văn A</t>
-  </si>
-  <si>
     <t>Trần Văn B</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Trần Văn D</t>
   </si>
   <si>
-    <t>Trần Văn E</t>
-  </si>
-  <si>
     <t>ThS.</t>
   </si>
   <si>
@@ -127,6 +121,12 @@
   </si>
   <si>
     <t>etv@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>Trần Văn Eii</t>
+  </si>
+  <si>
+    <t>Trần Văn Aii.</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,19 +504,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -524,19 +524,19 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -544,19 +544,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -564,19 +564,19 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -584,19 +584,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/server/giangViens.xlsx
+++ b/server/giangViens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\QuanLyKhoaLuan\quan-ly-khoa-luan\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Other\quan-ly-khoa-luan\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA5FF33-6C29-4A50-A8FE-7A4BEB222517}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F8F753-FC8A-431D-A09F-CEE48CAD5B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -127,6 +127,174 @@
   </si>
   <si>
     <t>Trần Văn Aii.</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>0800000005</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>0800000006</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>0800000007</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>0800000008</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0800000009</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>0800000010</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>0800000011</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>0800000012</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>0800000013</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0800000014</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0800000015</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>0800000016</t>
+  </si>
+  <si>
+    <t>Trần Văn 1</t>
+  </si>
+  <si>
+    <t>etv1@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>Trần Văn 2</t>
+  </si>
+  <si>
+    <t>Trần Văn 3</t>
+  </si>
+  <si>
+    <t>Trần Văn 4</t>
+  </si>
+  <si>
+    <t>Trần Văn 5</t>
+  </si>
+  <si>
+    <t>Trần Văn 6</t>
+  </si>
+  <si>
+    <t>Trần Văn 7</t>
+  </si>
+  <si>
+    <t>Trần Văn 8</t>
+  </si>
+  <si>
+    <t>Trần Văn 9</t>
+  </si>
+  <si>
+    <t>Trần Văn 10</t>
+  </si>
+  <si>
+    <t>Trần Văn 11</t>
+  </si>
+  <si>
+    <t>Trần Văn 12</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Trần Văn 13</t>
+  </si>
+  <si>
+    <t>0800000017</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Trần Văn 14</t>
+  </si>
+  <si>
+    <t>0800000018</t>
+  </si>
+  <si>
+    <t>etv2@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>etv3@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>etv4@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>etv5@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>etv6@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>etv7@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>etv8@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>etv9@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>etv10@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>etv11@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>etv12@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>etv13@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>etv14@uit.edu.vn</t>
   </si>
 </sst>
 </file>
@@ -462,11 +630,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -599,11 +765,305 @@
         <v>26</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="16520000@gm.uit.edu.vn" xr:uid="{A16AAD35-8DC2-4793-BC52-75687A8C03D8}"/>
     <hyperlink ref="E3:E6" r:id="rId2" display="16520000@gm.uit.edu.vn" xr:uid="{2F86FDA8-52E4-4C59-A134-CCBFAC81B9AD}"/>
+    <hyperlink ref="E7" r:id="rId3" display="16520000@gm.uit.edu.vn" xr:uid="{C6C630AC-926F-48A1-AB76-8353079268AC}"/>
+    <hyperlink ref="E8" r:id="rId4" display="16520000@gm.uit.edu.vn" xr:uid="{C7253C4A-9B1F-4DF2-AA43-BFCB47DB7D77}"/>
+    <hyperlink ref="E9" r:id="rId5" display="16520000@gm.uit.edu.vn" xr:uid="{F8CC1A6D-B52D-4BD5-B8D0-D1690066ABD6}"/>
+    <hyperlink ref="E10" r:id="rId6" display="16520000@gm.uit.edu.vn" xr:uid="{2F1AD427-119D-41CE-AA56-98A7EE2E08A8}"/>
+    <hyperlink ref="E11" r:id="rId7" display="16520000@gm.uit.edu.vn" xr:uid="{61B91FEE-1D56-4A16-8881-A14F5078924E}"/>
+    <hyperlink ref="E12" r:id="rId8" display="16520000@gm.uit.edu.vn" xr:uid="{D208B724-5940-479C-8E5D-5348BF0BD32A}"/>
+    <hyperlink ref="E13" r:id="rId9" display="16520000@gm.uit.edu.vn" xr:uid="{F34A53C2-A8B9-4A58-814D-CC8C6A7BDA32}"/>
+    <hyperlink ref="E14" r:id="rId10" display="16520000@gm.uit.edu.vn" xr:uid="{17D2D695-D6FD-4C73-A6E2-468D8969B618}"/>
+    <hyperlink ref="E15" r:id="rId11" display="16520000@gm.uit.edu.vn" xr:uid="{67D2F296-0FCB-4EE0-8FCB-0E5BE8A3CCEA}"/>
+    <hyperlink ref="E16" r:id="rId12" display="16520000@gm.uit.edu.vn" xr:uid="{025794F4-EC73-49BB-817A-57BAB97DFD6D}"/>
+    <hyperlink ref="E17" r:id="rId13" display="16520000@gm.uit.edu.vn" xr:uid="{38A9DA8C-8AE2-4430-9E83-139D0DEAA29C}"/>
+    <hyperlink ref="E18" r:id="rId14" display="16520000@gm.uit.edu.vn" xr:uid="{012A4DE9-FEA3-4A8A-B326-B1D6C1EC9F47}"/>
+    <hyperlink ref="E19" r:id="rId15" display="16520000@gm.uit.edu.vn" xr:uid="{850E3F30-0AEF-4E40-B133-F0D7693729CC}"/>
+    <hyperlink ref="E20" r:id="rId16" display="16520000@gm.uit.edu.vn" xr:uid="{122D5764-1C67-4F86-BA7F-4404EDA51585}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/server/giangViens.xlsx
+++ b/server/giangViens.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Other\quan-ly-khoa-luan\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\QuanLyKhoaLuan\quan-ly-khoa-luan\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F8F753-FC8A-431D-A09F-CEE48CAD5B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AD0485-FFBA-452C-8EDE-DF337AD893B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="122">
   <si>
     <t>name</t>
   </si>
@@ -295,6 +295,102 @@
   </si>
   <si>
     <t>etv14@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Trần Văn 15</t>
+  </si>
+  <si>
+    <t>0800000019</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Trần Văn 16</t>
+  </si>
+  <si>
+    <t>0800000020</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Trần Văn 17</t>
+  </si>
+  <si>
+    <t>0800000021</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Trần Văn 18</t>
+  </si>
+  <si>
+    <t>0800000022</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Trần Văn 19</t>
+  </si>
+  <si>
+    <t>0800000023</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Trần Văn 20</t>
+  </si>
+  <si>
+    <t>0800000024</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Trần Văn 21</t>
+  </si>
+  <si>
+    <t>0800000025</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Trần Văn 22</t>
+  </si>
+  <si>
+    <t>0800000026</t>
+  </si>
+  <si>
+    <t>etv15@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>etv16@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>etv17@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>etv18@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>etv19@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>etv20@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>etv21@uit.edu.vn</t>
+  </si>
+  <si>
+    <t>etv22@uit.edu.vn</t>
   </si>
 </sst>
 </file>
@@ -630,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1042,6 +1138,166 @@
         <v>89</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1064,6 +1320,14 @@
     <hyperlink ref="E18" r:id="rId14" display="16520000@gm.uit.edu.vn" xr:uid="{012A4DE9-FEA3-4A8A-B326-B1D6C1EC9F47}"/>
     <hyperlink ref="E19" r:id="rId15" display="16520000@gm.uit.edu.vn" xr:uid="{850E3F30-0AEF-4E40-B133-F0D7693729CC}"/>
     <hyperlink ref="E20" r:id="rId16" display="16520000@gm.uit.edu.vn" xr:uid="{122D5764-1C67-4F86-BA7F-4404EDA51585}"/>
+    <hyperlink ref="E21" r:id="rId17" display="16520000@gm.uit.edu.vn" xr:uid="{A97FF750-B6EE-4320-AADE-6BC403B28D7A}"/>
+    <hyperlink ref="E22" r:id="rId18" display="16520000@gm.uit.edu.vn" xr:uid="{93EA9F24-5A45-42F0-96AC-E907E05ED88B}"/>
+    <hyperlink ref="E23" r:id="rId19" display="16520000@gm.uit.edu.vn" xr:uid="{FC2B606B-5499-4980-A236-F152D9A73CD4}"/>
+    <hyperlink ref="E24" r:id="rId20" display="16520000@gm.uit.edu.vn" xr:uid="{1423023D-057D-46E0-B8E2-0D0C27E745C6}"/>
+    <hyperlink ref="E25" r:id="rId21" display="16520000@gm.uit.edu.vn" xr:uid="{2D46A9EB-3A16-4A85-8E48-EE24184BD9D2}"/>
+    <hyperlink ref="E26" r:id="rId22" display="16520000@gm.uit.edu.vn" xr:uid="{3FDEE92C-4C1A-43F5-BF2B-997FA4107F68}"/>
+    <hyperlink ref="E27" r:id="rId23" display="16520000@gm.uit.edu.vn" xr:uid="{D0500BEC-0C29-4D91-9F43-292765CFEC8A}"/>
+    <hyperlink ref="E28" r:id="rId24" display="16520000@gm.uit.edu.vn" xr:uid="{87849519-4D5C-40E6-AA8C-95EBC02A915E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
